--- a/data_year/zb/科技/按登记注册类型和行业分大中型工业企业专利情况/按登记注册类型分大中型工业企业专利申请数.xlsx
+++ b/data_year/zb/科技/按登记注册类型和行业分大中型工业企业专利情况/按登记注册类型分大中型工业企业专利申请数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,39 +553,83 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>306</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14559</v>
+      </c>
+      <c r="D2" t="n">
+        <v>288</v>
+      </c>
+      <c r="E2" t="n">
+        <v>140484</v>
+      </c>
+      <c r="F2" t="n">
+        <v>336</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11925</v>
+      </c>
+      <c r="H2" t="n">
+        <v>61444</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14731</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8081</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19</v>
+      </c>
+      <c r="L2" t="n">
+        <v>34193</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1518</v>
+      </c>
+      <c r="N2" t="n">
+        <v>17810</v>
+      </c>
       <c r="O2" t="n">
-        <v>11819</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+        <v>198890</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1170</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="R2" t="n">
+        <v>24213</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10782</v>
+      </c>
+      <c r="T2" t="n">
+        <v>37955</v>
+      </c>
+      <c r="U2" t="n">
+        <v>72</v>
+      </c>
+      <c r="V2" t="n">
+        <v>686</v>
+      </c>
+      <c r="W2" t="n">
+        <v>40010</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1646</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -602,7 +646,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>15339</v>
+        <v>265612</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -617,7 +661,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -634,7 +678,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>21297</v>
+        <v>327116</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -649,7 +693,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -666,7 +710,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>31382</v>
+        <v>359791</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -681,7 +725,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -698,7 +742,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>42318</v>
+        <v>393480</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -713,7 +757,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -730,7 +774,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>55271</v>
+        <v>394956</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -745,7 +789,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -762,7 +806,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>69009</v>
+        <v>438422</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -777,7 +821,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -794,7 +838,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>95905</v>
+        <v>496260</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -809,235 +853,103 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>103</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9073</v>
-      </c>
-      <c r="D10" t="n">
-        <v>174</v>
-      </c>
-      <c r="E10" t="n">
-        <v>89663</v>
-      </c>
-      <c r="F10" t="n">
-        <v>149</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6425</v>
-      </c>
-      <c r="H10" t="n">
-        <v>37642</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9427</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4899</v>
-      </c>
-      <c r="K10" t="n">
-        <v>27</v>
-      </c>
-      <c r="L10" t="n">
-        <v>17705</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1436</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7093</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>122076</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1111</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>30117</v>
-      </c>
-      <c r="R10" t="n">
-        <v>14708</v>
-      </c>
-      <c r="S10" t="n">
-        <v>7023</v>
-      </c>
-      <c r="T10" t="n">
-        <v>22455</v>
-      </c>
-      <c r="U10" t="n">
-        <v>45</v>
-      </c>
-      <c r="V10" t="n">
-        <v>329</v>
-      </c>
-      <c r="W10" t="n">
-        <v>25783</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1333</v>
-      </c>
+        <v>541149</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>218</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11895</v>
-      </c>
-      <c r="D11" t="n">
-        <v>648</v>
-      </c>
-      <c r="E11" t="n">
-        <v>119642</v>
-      </c>
-      <c r="F11" t="n">
-        <v>232</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9480</v>
-      </c>
-      <c r="H11" t="n">
-        <v>52170</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12108</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6754</v>
-      </c>
-      <c r="K11" t="n">
-        <v>72</v>
-      </c>
-      <c r="L11" t="n">
-        <v>27339</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1762</v>
-      </c>
-      <c r="N11" t="n">
-        <v>13464</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>166762</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1350</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>39544</v>
-      </c>
-      <c r="R11" t="n">
-        <v>19781</v>
-      </c>
-      <c r="S11" t="n">
-        <v>8719</v>
-      </c>
-      <c r="T11" t="n">
-        <v>29057</v>
-      </c>
-      <c r="U11" t="n">
-        <v>99</v>
-      </c>
-      <c r="V11" t="n">
-        <v>573</v>
-      </c>
-      <c r="W11" t="n">
-        <v>36202</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1411</v>
-      </c>
+        <v>574316</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>306</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14559</v>
-      </c>
-      <c r="D12" t="n">
-        <v>288</v>
-      </c>
-      <c r="E12" t="n">
-        <v>140484</v>
-      </c>
-      <c r="F12" t="n">
-        <v>336</v>
-      </c>
-      <c r="G12" t="n">
-        <v>11925</v>
-      </c>
-      <c r="H12" t="n">
-        <v>61444</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14731</v>
-      </c>
-      <c r="J12" t="n">
-        <v>8081</v>
-      </c>
-      <c r="K12" t="n">
-        <v>19</v>
-      </c>
-      <c r="L12" t="n">
-        <v>34193</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1518</v>
-      </c>
-      <c r="N12" t="n">
-        <v>17810</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>198890</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1170</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>45096</v>
-      </c>
-      <c r="R12" t="n">
-        <v>24213</v>
-      </c>
-      <c r="S12" t="n">
-        <v>10782</v>
-      </c>
-      <c r="T12" t="n">
-        <v>37955</v>
-      </c>
-      <c r="U12" t="n">
-        <v>72</v>
-      </c>
-      <c r="V12" t="n">
-        <v>686</v>
-      </c>
-      <c r="W12" t="n">
-        <v>40010</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1646</v>
-      </c>
+        <v>649617</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1054,7 +966,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>265612</v>
+        <v>707279</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1066,294 +978,6 @@
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>327116</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>359791</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
-        <v>393480</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>394956</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>438422</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>496260</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>541149</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
-        <v>574316</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="n">
-        <v>649617</v>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
